--- a/Utenze.xlsx
+++ b/Utenze.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://camozzicloud-my.sharepoint.com/personal/mpasseri_fonderiemoragavardo_it/Documents/Documenti/VSCode/EnergyMeters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D26EC6A-9D58-4CDF-AF51-1E3671FF96C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{3D26EC6A-9D58-4CDF-AF51-1E3671FF96C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{846F343E-E311-4034-A9B9-28CF50764360}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{2E2CE253-389E-4F21-A108-87602DB5230F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2E2CE253-389E-4F21-A108-87602DB5230F}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Cabinet</t>
   </si>
@@ -57,6 +57,12 @@
   </si>
   <si>
     <t>Ingersoll SSR200</t>
+  </si>
+  <si>
+    <t>Non riconosciuto</t>
+  </si>
+  <si>
+    <t>Filtro E13</t>
   </si>
 </sst>
 </file>
@@ -428,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1680E39E-5F56-4407-8516-51024B0D746B}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="385" zoomScaleNormal="385" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -495,6 +501,28 @@
         <v>6</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Utenze.xlsx
+++ b/Utenze.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Cabinet</t>
   </si>
@@ -22,12 +22,18 @@
     <t>Nodo</t>
   </si>
   <si>
+    <t>Gruppo</t>
+  </si>
+  <si>
     <t>Utenza</t>
   </si>
   <si>
     <t>Dummy</t>
   </si>
   <si>
+    <t>Compressori</t>
+  </si>
+  <si>
     <t>Compair L200</t>
   </si>
   <si>
@@ -40,7 +46,13 @@
     <t>Ingersoll SSR200</t>
   </si>
   <si>
+    <t>Generico</t>
+  </si>
+  <si>
     <t>Non riconosciuto</t>
+  </si>
+  <si>
+    <t>Filtri</t>
   </si>
   <si>
     <t>Filtro E13</t>
@@ -61,7 +73,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -93,16 +105,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -412,18 +421,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="7.433571428571429" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="16.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="3" width="7.433571428571429" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="4" width="16.862142857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -433,8 +443,11 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -442,73 +455,94 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="3">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3">
+      <c r="B3" s="1">
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="3">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="1">
         <v>27</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
-      <c r="A5" s="3">
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="1">
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
-      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="1">
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
-      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="1">
         <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
-      <c r="A8" s="3">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="1">
         <v>1</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="1">
         <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Utenze.xlsx
+++ b/Utenze.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>Cabinet</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>Filtri</t>
+  </si>
+  <si>
+    <t>Filtro E33</t>
   </si>
   <si>
     <t>Filtro E13</t>
@@ -105,13 +108,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -421,16 +427,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="7.433571428571429" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="4" width="16.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="7.433571428571429" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="16.862142857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -531,18 +537,32 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="1">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1">
-        <v>11</v>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+      <c r="A8" s="3">
+        <v>0</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Utenze.xlsx
+++ b/Utenze.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Cabinet</t>
   </si>
@@ -25,7 +25,10 @@
     <t>Utenza</t>
   </si>
   <si>
-    <t>Cab3_generale</t>
+    <t xml:space="preserve">b2 </t>
+  </si>
+  <si>
+    <t>Cab3 Generale1</t>
   </si>
 </sst>
 </file>
@@ -75,13 +78,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -391,15 +397,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="7.433571428571429" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="16.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="7.433571428571429" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="16.862142857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -413,15 +419,26 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="1">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="3">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Utenze.xlsx
+++ b/Utenze.xlsx
@@ -25,7 +25,7 @@
     <t>Utenza</t>
   </si>
   <si>
-    <t xml:space="preserve">b2 </t>
+    <t>Cab2 Generale1</t>
   </si>
   <si>
     <t>Cab3 Generale1</t>

--- a/Utenze.xlsx
+++ b/Utenze.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Cabinet</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>Utenza</t>
+  </si>
+  <si>
+    <t>Cab1 Generale1</t>
   </si>
   <si>
     <t>Cab2 Generale1</t>
@@ -36,7 +39,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -47,6 +50,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -78,7 +87,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -87,6 +96,9 @@
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -397,15 +409,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="7.433571428571429" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="16.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="7.433571428571429" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="16.862142857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -421,7 +433,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
@@ -430,15 +442,26 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="1">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Utenze.xlsx
+++ b/Utenze.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Cabinet</t>
   </si>
@@ -23,9 +23,6 @@
   </si>
   <si>
     <t>Utenza</t>
-  </si>
-  <si>
-    <t>Cab1 Generale1</t>
   </si>
   <si>
     <t>Cab2 Generale1</t>
@@ -39,7 +36,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,12 +47,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -87,19 +78,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -409,15 +394,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="7.433571428571429" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="16.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="3" width="7.433571428571429" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="16.862142857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -431,37 +416,26 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="1">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Utenze.xlsx
+++ b/Utenze.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Cabinet</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>Utenza</t>
+  </si>
+  <si>
+    <t>Cab1 Generale2</t>
   </si>
   <si>
     <t>Cab2 Generale1</t>
@@ -36,7 +39,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -47,6 +50,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -78,13 +87,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -394,15 +406,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="7.433571428571429" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="16.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="7.433571428571429" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="16.862142857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -416,12 +428,12 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="1">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="3">
         <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
@@ -429,13 +441,24 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Utenze.xlsx
+++ b/Utenze.xlsx
@@ -25,7 +25,7 @@
     <t>Utenza</t>
   </si>
   <si>
-    <t>Cab1 Generale2</t>
+    <t>Cab1 Generale1</t>
   </si>
   <si>
     <t>Cab2 Generale1</t>
@@ -39,7 +39,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,12 +50,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -87,16 +81,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -412,9 +403,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="7.433571428571429" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="16.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="3" width="7.433571428571429" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="16.862142857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -428,12 +419,12 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="3">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
-        <v>13</v>
+      <c r="B2" s="1">
+        <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>

--- a/Utenze.xlsx
+++ b/Utenze.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Cabinet</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>Cab1 Generale1</t>
+  </si>
+  <si>
+    <t>Cab1 Generale2</t>
   </si>
   <si>
     <t>Cab2 Generale1</t>
@@ -81,13 +84,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -397,15 +403,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="7.433571428571429" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="16.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="7.433571428571429" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="16.862142857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -430,12 +436,12 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>4</v>
@@ -443,13 +449,24 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
